--- a/income_data.xlsx
+++ b/income_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChayutWo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Data Science\IBM Certificate\projects\IBM-Data-Science-Certificate\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA8BA1-26D5-4725-9922-9D75F34F20E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="3225"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -17,10 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -188,13 +195,13 @@
     <t>Yan Nawa</t>
   </si>
   <si>
-    <t>dasd</t>
+    <t>District</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,20 +515,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -535,7 +542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -550,7 +557,7 @@
         <v>4923</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -565,7 +572,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -580,7 +587,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -595,7 +602,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -610,7 +617,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -625,7 +632,7 @@
         <v>4995</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -640,7 +647,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -655,7 +662,7 @@
         <v>5546</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -670,7 +677,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -685,7 +692,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -700,7 +707,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -715,7 +722,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -730,7 +737,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -745,7 +752,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -760,7 +767,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -775,7 +782,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -790,7 +797,7 @@
         <v>-1055</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -805,7 +812,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -820,7 +827,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -835,7 +842,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -850,7 +857,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -865,7 +872,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -880,7 +887,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -895,7 +902,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -910,7 +917,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -925,7 +932,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -940,7 +947,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -955,7 +962,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -970,7 +977,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -985,7 +992,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1007,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1015,7 +1022,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1037,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1097,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1105,7 +1112,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1127,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1150,7 +1157,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1255,7 +1262,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1286,8 +1293,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G51">
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G51">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/income_data.xlsx
+++ b/income_data.xlsx
@@ -5,36 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Data Science\IBM Certificate\projects\IBM-Data-Science-Certificate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\IBM certificate\Capstone\IBM-Data-Science-Certificate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA8BA1-26D5-4725-9922-9D75F34F20E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC68C62-8B33-4892-AAE7-974DFD8BD539}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Pom Prap Sattru Phai</t>
   </si>
@@ -196,6 +190,9 @@
   </si>
   <si>
     <t>District</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -516,19 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -541,8 +538,11 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -556,8 +556,11 @@
         <f>B2-C2</f>
         <v>4923</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>34.744999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -571,8 +574,11 @@
         <f t="shared" ref="D3:D51" si="0">B3-C3</f>
         <v>3115</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <v>28.523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -586,8 +592,11 @@
         <f t="shared" si="0"/>
         <v>4323</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <v>44.456000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -601,8 +610,11 @@
         <f t="shared" si="0"/>
         <v>1107</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <v>42.122999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -616,8 +628,11 @@
         <f t="shared" si="0"/>
         <v>2525</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <v>10.920999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -631,8 +646,11 @@
         <f t="shared" si="0"/>
         <v>4995</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7">
+        <v>120.687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -646,8 +664,11 @@
         <f t="shared" si="0"/>
         <v>2818</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8">
+        <v>18.789000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -661,8 +682,11 @@
         <f t="shared" si="0"/>
         <v>5546</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -676,8 +700,11 @@
         <f t="shared" si="0"/>
         <v>1613</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -691,8 +718,11 @@
         <f t="shared" si="0"/>
         <v>2650</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -706,8 +736,11 @@
         <f t="shared" si="0"/>
         <v>1746</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12">
+        <v>11.944000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -721,8 +754,11 @@
         <f t="shared" si="0"/>
         <v>2964</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -736,8 +772,11 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14">
+        <v>24.311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -751,8 +790,11 @@
         <f t="shared" si="0"/>
         <v>963</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15">
+        <v>32.908000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -766,8 +808,11 @@
         <f t="shared" si="0"/>
         <v>3909</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16">
+        <v>26.265000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -781,8 +826,11 @@
         <f t="shared" si="0"/>
         <v>2997</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -796,8 +844,11 @@
         <f t="shared" si="0"/>
         <v>-1055</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18">
+        <v>36.802999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -811,8 +862,11 @@
         <f t="shared" si="0"/>
         <v>1958</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -826,8 +880,11 @@
         <f t="shared" si="0"/>
         <v>2299</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20">
+        <v>15.032999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -841,8 +898,11 @@
         <f t="shared" si="0"/>
         <v>2911</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -856,8 +916,11 @@
         <f t="shared" si="0"/>
         <v>585</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22">
+        <v>110.68600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -871,8 +934,11 @@
         <f t="shared" si="0"/>
         <v>2287</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23">
+        <v>6.0510000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -886,8 +952,11 @@
         <f t="shared" si="0"/>
         <v>1731</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -901,8 +970,11 @@
         <f t="shared" si="0"/>
         <v>511</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25">
+        <v>22.841000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -916,8 +988,11 @@
         <f t="shared" si="0"/>
         <v>2623</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26">
+        <v>123.85899999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -931,8 +1006,11 @@
         <f t="shared" si="0"/>
         <v>1829</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -946,8 +1024,11 @@
         <f t="shared" si="0"/>
         <v>2837</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28">
+        <v>63.645000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -961,8 +1042,11 @@
         <f t="shared" si="0"/>
         <v>3466</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29">
+        <v>236.261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -976,8 +1060,11 @@
         <f t="shared" si="0"/>
         <v>4590</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30">
+        <v>35.825000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -991,8 +1078,11 @@
         <f t="shared" si="0"/>
         <v>1973</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1096,11 @@
         <f t="shared" si="0"/>
         <v>4215</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32">
+        <v>17.834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1021,8 +1114,11 @@
         <f t="shared" si="0"/>
         <v>2775</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33">
+        <v>9.5950000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1036,8 +1132,11 @@
         <f t="shared" si="0"/>
         <v>3134</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34">
+        <v>13.986000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1051,8 +1150,11 @@
         <f t="shared" si="0"/>
         <v>1044</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35">
+        <v>5.5359999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1066,8 +1168,11 @@
         <f t="shared" si="0"/>
         <v>2327</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36">
+        <v>1.931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1081,8 +1186,11 @@
         <f t="shared" si="0"/>
         <v>2892</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1096,8 +1204,11 @@
         <f t="shared" si="0"/>
         <v>4055</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38">
+        <v>15.782</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1111,8 +1222,11 @@
         <f t="shared" si="0"/>
         <v>2441</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E39">
+        <v>7.1260000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1126,8 +1240,11 @@
         <f t="shared" si="0"/>
         <v>1426</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E40">
+        <v>44.615000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1141,8 +1258,11 @@
         <f t="shared" si="0"/>
         <v>1205</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41">
+        <v>1.4159999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1156,8 +1276,11 @@
         <f t="shared" si="0"/>
         <v>3905</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E42">
+        <v>28.123999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1171,8 +1294,11 @@
         <f t="shared" si="0"/>
         <v>2190</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43">
+        <v>9.3260000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1186,8 +1312,11 @@
         <f t="shared" si="0"/>
         <v>3069</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E44">
+        <v>23.678000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1201,8 +1330,11 @@
         <f t="shared" si="0"/>
         <v>4128</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E45">
+        <v>29.478999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1216,8 +1348,11 @@
         <f t="shared" si="0"/>
         <v>5449</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46">
+        <v>50.219000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1231,8 +1366,11 @@
         <f t="shared" si="0"/>
         <v>1732</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E47">
+        <v>8.5510000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1246,8 +1384,11 @@
         <f t="shared" si="0"/>
         <v>5073</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48">
+        <v>30.741</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1261,8 +1402,11 @@
         <f t="shared" si="0"/>
         <v>2572</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49">
+        <v>18.905000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1276,8 +1420,11 @@
         <f t="shared" si="0"/>
         <v>1282</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50">
+        <v>12.565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1291,13 +1438,17 @@
         <f t="shared" si="0"/>
         <v>1889</v>
       </c>
+      <c r="E51">
+        <v>16.661999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G51">
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:E51">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>